--- a/biology/Botanique/Toomemägi_(Tartu)/Toomemägi_(Tartu).xlsx
+++ b/biology/Botanique/Toomemägi_(Tartu)/Toomemägi_(Tartu).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Toomem%C3%A4gi_(Tartu)</t>
+          <t>Toomemägi_(Tartu)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Toomemägi, Colline du dôme en estonien, est un relief calcaire naturel situé dans la ville de Tartu en Estonie sur la rive droite de l'Emajõgi.
 La plus grande partie de la butte est désormais occupée par un grand parc à l'anglaise aménagé au XIXe siècle.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Toomem%C3%A4gi_(Tartu)</t>
+          <t>Toomemägi_(Tartu)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des fouilles archéologiques ont montré l'existence d'un premier établissement permanent sur le site du Tartu actuel dès le Ve siècle de notre ère. Au VIIe siècle, les habitants avaient construit une fortification en bois sur le côté est de la colline.
-La première mention écrite de la région en 1030 est due aux chroniqueurs de la Russie kiévienne. Iaroslav le Sage, prince de Kiev, s'est emparé de Tartu cette année-là, y a construit sa propre forteresse qu'il a appelée Youriev (littéralement « de Youri » - Youry étant le prénom de Yaroslav). Les dirigeants de Kiev ont alors reçu le tribut de l'ancien comté estonien environnant d'Ungannie, peut-être jusqu'en 1061, quand, selon les chroniques, Youriev a été incendiée par une tribu  tchoude (nom d'anciens peuples estoniens), les Sosols. Les Russes ont de nouveau occupé Tartu de 1133 à 1176/1177. Au XIIe siècle, Tartu était la plus grande colonie russe du territoire tchoude[1],[2].
+La première mention écrite de la région en 1030 est due aux chroniqueurs de la Russie kiévienne. Iaroslav le Sage, prince de Kiev, s'est emparé de Tartu cette année-là, y a construit sa propre forteresse qu'il a appelée Youriev (littéralement « de Youri » - Youry étant le prénom de Yaroslav). Les dirigeants de Kiev ont alors reçu le tribut de l'ancien comté estonien environnant d'Ungannie, peut-être jusqu'en 1061, quand, selon les chroniques, Youriev a été incendiée par une tribu  tchoude (nom d'anciens peuples estoniens), les Sosols. Les Russes ont de nouveau occupé Tartu de 1133 à 1176/1177. Au XIIe siècle, Tartu était la plus grande colonie russe du territoire tchoude,.
 À l'époque des Croisades baltes, au début du XIIIe siècle, le fort de Tarbatu (ou Tharbata, ou Tartu) s'étendait sur la colline de Toomemägi.
 Il fut à maintes reprises pris et repris par les Chevaliers Porte-Glaive et les Estes. En 1224, après que des renforts conduits par le prince Vyachko de Kukenois eurent été installés dans la forteresse, elle fut assiégée et conquise une dernière fois par les croisés allemands. Par la suite, connue sous le nom de Dorpat (Tarbatum), Tartu devint pendant la fin du Moyen Âge un centre commercial d'une importance considérable et la capitale de l'évêché semi-indépendant de Dorpat dont le siège était situé sur la colline dans le palais épiscopal.
 La construction de la cathédrale gothique sur le flanc nord de la colline a probablement débuté dans la seconde moitié du XIIIe siècle. Elle fut entourée d'un cimetière et d'une résidence pour les membres du chapitre. Elle fut dédiée à saint Pierre et saint Paul qui étaient également patrons de la ville. La cathédrale était alors l'un des plus grands édifices religieux d'Europe de l'Est.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Toomem%C3%A4gi_(Tartu)</t>
+          <t>Toomemägi_(Tartu)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Université de Tartu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des fouilles archéologiques ont montré l'existence d'un premier établissement permanent sur le site du Tartu actuel dès le Ve siècle de notre ère. Au VIIe siècle, les habitants avaient construit une fortification en bois sur le côté est de la colline.
 La première mention écrite de la région en 1030 est due aux chroniqueur
